--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_02_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_02_end.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Grani and Carol are attacked by Originium slugs, but then are suddenly rescued by a bounty hunter. Going by "Big Bob," the bounty hunter unexpectedly offers to cooperate with Grani.
+    <t xml:space="preserve">Grani and Carol are attacked by Originium slugs, but then are suddenly rescued by a bounty hunter. Going by 'Big Bob,' the bounty hunter unexpectedly offers to cooperate with Grani.
 </t>
   </si>
   <si>
